--- a/data/fg_bread.xlsx
+++ b/data/fg_bread.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$O$54</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -70,145 +73,145 @@
     <t xml:space="preserve">fg_bread</t>
   </si>
   <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5620eea9d0ee571e3db16f7d60f6ff8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04bd55d4038fb6b106f281f15b38a864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaCl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14489a2da0aa7b3c633c2b8f67e61e9d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacterial fermentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heating oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9914a9b79f91864ecf8c1681be876448</t>
+  </si>
+  <si>
     <t xml:space="preserve">Succinic acid production (bread)</t>
   </si>
   <si>
-    <t xml:space="preserve">kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con391</t>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206c622c567b1abfcfea904962336d32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biosphere3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9749677-9c9f-4678-ab55-c607dfdc2cb9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgCO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7b7f4779e2ea6e5238c253bc18cf2f0f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09360a33570c4ddf0d04eac44e6e4d9c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8ea3a8d1fbd4e0654a4a88c18ec33264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8906fee72c7992ad3a7c242c54e1ab13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73ed05cc-9727-4abf-9516-4b5c0fe54a16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42c89031f17fb870fe74075906a8f290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5f7aad3d-566c-4d0d-ad59-e765f971aa0f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8c52f40c-69b7-4538-8923-b371523c71f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d068f3e2-b033-417b-a359-ca4f25da9731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9990b51b-7023-4700-bca0-1a32ef921f74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baf58fc9-573c-419c-8c16-831ac03203b9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8c8ffaa5-84ed-4668-ba7d-80fd0f47013f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f21b8022-f20d-4752-8cd6-728f56cf9c43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8216fc31-15a1-4d33-858f-e09650b14c63</t>
   </si>
   <si>
     <t xml:space="preserve">688bad5a26258b5135cc811aa24138a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacterial fermentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaCl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgCO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biosphere3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d068f3e2-b033-417b-a359-ca4f25da9731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9990b51b-7023-4700-bca0-1a32ef921f74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8c52f40c-69b7-4538-8923-b371523c71f5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f9749677-9c9f-4678-ab55-c607dfdc2cb9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73ed05cc-9727-4abf-9516-4b5c0fe54a16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heating oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baf58fc9-573c-419c-8c16-831ac03203b9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f7aad3d-566c-4d0d-ad59-e765f971aa0f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8216fc31-15a1-4d33-858f-e09650b14c63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8c8ffaa5-84ed-4668-ba7d-80fd0f47013f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f21b8022-f20d-4752-8cd6-728f56cf9c43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206c622c567b1abfcfea904962336d32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04bd55d4038fb6b106f281f15b38a864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5620eea9d0ee571e3db16f7d60f6ff8c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42c89031f17fb870fe74075906a8f290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7b7f4779e2ea6e5238c253bc18cf2f0f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09360a33570c4ddf0d04eac44e6e4d9c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8ea3a8d1fbd4e0654a4a88c18ec33264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9914a9b79f91864ecf8c1681be876448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906fee72c7992ad3a7c242c54e1ab13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14489a2da0aa7b3c633c2b8f67e61e9d</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,20 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -334,17 +350,15 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,7 +408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -417,7 +431,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
@@ -431,7 +445,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -454,7 +468,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-10.6</v>
+        <v>117</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
@@ -468,49 +482,41 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" s="3" t="n">
-        <v>1</v>
+        <v>58.6</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,7 +530,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -533,13 +539,13 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>1</v>
+        <v>58.6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>22</v>
@@ -550,18 +556,18 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -570,16 +576,16 @@
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>1</v>
+        <v>40.5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -587,36 +593,36 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>1</v>
+        <v>40.5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -629,13 +635,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -644,10 +650,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>0.33</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>17</v>
@@ -655,18 +661,10 @@
       <c r="J8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,10 +672,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -689,16 +687,16 @@
         <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>0.079</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -706,15 +704,15 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -723,13 +721,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>15000</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>17</v>
@@ -748,10 +746,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
@@ -763,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>13.5</v>
@@ -785,10 +783,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
@@ -800,10 +798,10 @@
         <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>58.6</v>
+        <v>13.5</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>17</v>
@@ -817,18 +815,18 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -837,16 +835,16 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>1</v>
+        <v>13.5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -854,15 +852,15 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>17</v>
@@ -874,10 +872,10 @@
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>0.273</v>
+        <v>3.39</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>17</v>
@@ -891,18 +889,18 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -911,29 +909,21 @@
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>0.197</v>
+        <v>3.39</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,55 +931,47 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0.33</v>
+        <v>3.39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -1004,13 +986,13 @@
         <v>33</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1018,73 +1000,81 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>0.00222</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>0.000279</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1092,36 +1082,36 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>0.00226</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1129,36 +1119,36 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>0.722</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1166,36 +1156,36 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>0.0361</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1208,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -1223,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>19</v>
@@ -1245,13 +1235,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
@@ -1260,58 +1250,50 @@
         <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>0.33</v>
+        <v>0.99</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>13.5</v>
+        <v>0.99</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>22</v>
@@ -1322,36 +1304,36 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>0.007</v>
+        <v>0.722</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -1364,13 +1346,13 @@
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>18</v>
@@ -1379,21 +1361,29 @@
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="K27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="O27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,13 +1391,13 @@
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>18</v>
@@ -1416,21 +1406,29 @@
         <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>58.6</v>
+        <v>0.33</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="K28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="O28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,13 +1436,13 @@
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>18</v>
@@ -1453,21 +1451,29 @@
         <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>3.39</v>
+        <v>0.33</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="K29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="O29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,31 +1481,31 @@
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>4.1E-005</v>
+        <v>0.273</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -1512,31 +1518,31 @@
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>0.00372</v>
+        <v>0.273</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -1544,36 +1550,36 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>7.4E-008</v>
+        <v>0.273</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -1586,36 +1592,44 @@
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>4.77E-007</v>
+        <v>0.197</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,31 +1637,31 @@
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>4.21E-007</v>
+        <v>0.197</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -1655,36 +1669,36 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>0.99</v>
+        <v>0.197</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -1697,28 +1711,28 @@
         <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>22</v>
@@ -1734,10 +1748,10 @@
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>17</v>
@@ -1749,10 +1763,10 @@
         <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>40.5</v>
+        <v>0.1</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>17</v>
@@ -1766,15 +1780,15 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>17</v>
@@ -1786,10 +1800,10 @@
         <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>40.5</v>
+        <v>0.1</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>17</v>
@@ -1808,10 +1822,10 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>17</v>
@@ -1823,16 +1837,16 @@
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>117</v>
+        <v>0.079</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -1845,10 +1859,10 @@
         <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>17</v>
@@ -1857,19 +1871,19 @@
         <v>18</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>117</v>
+        <v>0.079</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -1877,15 +1891,15 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>17</v>
@@ -1894,19 +1908,19 @@
         <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>0.007</v>
+        <v>0.079</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -1914,36 +1928,36 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>0.007</v>
+        <v>0.0361</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -1956,10 +1970,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>17</v>
@@ -1971,16 +1985,16 @@
         <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>0.273</v>
+        <v>0.007</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -1993,10 +2007,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>17</v>
@@ -2005,19 +2019,19 @@
         <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>0.273</v>
+        <v>0.007</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2025,15 +2039,15 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>17</v>
@@ -2042,19 +2056,19 @@
         <v>18</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>0.197</v>
+        <v>0.007</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2062,36 +2076,36 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>0.197</v>
+        <v>0.00372</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2099,36 +2113,36 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>0.1</v>
+        <v>0.00226</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -2136,36 +2150,36 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>0.1</v>
+        <v>0.00222</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2173,36 +2187,36 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>3.39</v>
+        <v>0.000279</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2210,36 +2224,36 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>3.39</v>
+        <v>4.1E-005</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2247,36 +2261,36 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>0.079</v>
+        <v>4.77E-007</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2284,36 +2298,36 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>0.079</v>
+        <v>4.21E-007</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2321,36 +2335,36 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>15000</v>
+        <v>7.4E-008</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2358,15 +2372,15 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>17</v>
@@ -2381,7 +2395,7 @@
         <v>62</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>15000</v>
+        <v>-10.6</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>17</v>
@@ -2396,6 +2410,7 @@
       <c r="O54" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2403,5 +2418,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>